--- a/docs/shrcore/shr-core-Participation-model.xlsx
+++ b/docs/shrcore/shr-core-Participation-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="55">
   <si>
     <t>Path</t>
   </si>
@@ -147,11 +147,7 @@
 </t>
   </si>
   <si>
-    <t>An entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1550369
-</t>
+    <t>An entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity. The participant is not necessarily the performer, and the role (ParticipationType), the ParticipationPeriod, and other details of the participation are by the Participation structure.</t>
   </si>
   <si>
     <t>shr-core-Participation-model.participationType</t>
@@ -168,10 +164,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/performer-role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1553854
-</t>
   </si>
   <si>
     <t>shr-core-Participation-model.participationPeriod</t>
@@ -340,7 +332,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -359,7 +351,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="130.33984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -374,7 +366,7 @@
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="40.38671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
@@ -655,7 +647,7 @@
         <v>36</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>36</v>
@@ -687,7 +679,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -710,13 +702,13 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="L4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -743,14 +735,14 @@
         <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -765,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
@@ -782,7 +774,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -805,13 +797,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -862,7 +854,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -879,7 +871,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -902,13 +894,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -959,7 +951,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
